--- a/Jira Scripting Plan_v2_3.xlsx
+++ b/Jira Scripting Plan_v2_3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="420" windowWidth="37080" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Exploratory Tests Defined?</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -870,6 +873,63 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -880,63 +940,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1066,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="93">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1104,12 +1107,34 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1137,12 +1162,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1170,12 +1228,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1225,6 +1316,17 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -1247,12 +1349,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1346,12 +1481,34 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1363,6 +1520,17 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
@@ -1379,12 +1547,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1412,12 +1613,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1478,12 +1712,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1511,6 +1778,17 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -1533,12 +1811,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1578,754 +1889,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2865,7 +2428,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -2874,31 +2437,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23" customHeight="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="78"/>
     </row>
     <row r="2" spans="1:21" ht="40" thickBot="1">
       <c r="A2" s="37" t="s">
@@ -4526,22 +4089,22 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="23" customHeight="1">
-      <c r="A27" s="69">
+      <c r="A27" s="65">
         <v>1663</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="73" t="s">
+      <c r="D27" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="30" t="s">
@@ -4628,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N28" s="19" t="s">
         <v>2</v>
@@ -4746,14 +4309,14 @@
       <c r="U30" s="20"/>
     </row>
     <row r="31" spans="1:21" ht="23" customHeight="1" thickBot="1">
-      <c r="A31" s="74">
+      <c r="A31" s="70">
         <v>1279</v>
       </c>
-      <c r="B31" s="75"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="21"/>
       <c r="H31" s="22"/>
       <c r="I31" s="21"/>
@@ -4771,67 +4334,67 @@
       <c r="U31" s="22"/>
     </row>
     <row r="32" spans="1:21" ht="23" customHeight="1">
-      <c r="A32" s="60">
+      <c r="A32" s="56">
         <v>1446</v>
       </c>
-      <c r="B32" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="S32" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="T32" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="U32" s="67" t="s">
+      <c r="B32" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" s="63" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5331,345 +4894,345 @@
     <mergeCell ref="G1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:M14 O1:Q14 S1:U14 S18:U26 O18:Q18 K18:M18 K20:M23 S32:U33 K25:M27 K29:M29 B1:B29 G1:H29 O20:Q27 O29:Q29 O32:Q33 G32:H33 B32:B33 K32:M33 K51:M1048576 B51:B1048576 G51:H1048576 O51:Q1048576 S51:U1048576">
-    <cfRule type="containsText" dxfId="112" priority="121" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="92" priority="121" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="111" priority="126" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="91" priority="126" operator="beginsWith" text="N">
       <formula>LEFT(B1,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="127" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="90" priority="127" operator="beginsWith" text="Y">
       <formula>LEFT(B1,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I14 N2:N14 R2:R14 R18:R26 N18 I18 I20:I23 R32:R33 I25:I27 I29 N20:N27 N29 N32:N33 I32:I33 I51:I1048576 N51:N1048576 R51:R1048576">
-    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="89" priority="110" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I2)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="111" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="88" priority="111" operator="beginsWith" text="N">
       <formula>LEFT(I2,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="112" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="87" priority="112" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F29 D32:F33 D51:F1048576">
-    <cfRule type="beginsWith" dxfId="106" priority="116" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="86" priority="116" operator="beginsWith" text="r">
       <formula>LEFT(D1,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="105" priority="117" operator="beginsWith" text="a">
+    <cfRule type="beginsWith" dxfId="85" priority="117" operator="beginsWith" text="a">
       <formula>LEFT(D1,LEN("a"))="a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C29 C32:C33 C51:C1048576">
-    <cfRule type="containsText" dxfId="104" priority="113" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="84" priority="113" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="114" operator="containsText" text="TBA">
+    <cfRule type="containsText" dxfId="83" priority="114" operator="containsText" text="TBA">
       <formula>NOT(ISERROR(SEARCH("TBA",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="115" operator="containsText" text="1*">
+    <cfRule type="containsText" dxfId="82" priority="115" operator="containsText" text="1*">
       <formula>NOT(ISERROR(SEARCH("1*",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:M24">
-    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="81" priority="102" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",K24)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="103" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="80" priority="103" operator="beginsWith" text="N">
       <formula>LEFT(K24,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="99" priority="104" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="79" priority="104" operator="beginsWith" text="Y">
       <formula>LEFT(K24,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="78" priority="99" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I24)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="97" priority="100" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="77" priority="100" operator="beginsWith" text="N">
       <formula>LEFT(I24,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="101" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="76" priority="101" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:M28">
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="75" priority="94" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",K28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="95" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="74" priority="95" operator="beginsWith" text="N">
       <formula>LEFT(K28,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="93" priority="96" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="73" priority="96" operator="beginsWith" text="Y">
       <formula>LEFT(K28,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="72" priority="91" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="91" priority="92" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="71" priority="92" operator="beginsWith" text="N">
       <formula>LEFT(I28,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="70" priority="93" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:Q28">
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="69" priority="88" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",O28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="89" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="68" priority="89" operator="beginsWith" text="N">
       <formula>LEFT(O28,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="87" priority="90" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="67" priority="90" operator="beginsWith" text="Y">
       <formula>LEFT(O28,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="66" priority="85" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",N28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="85" priority="86" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="65" priority="86" operator="beginsWith" text="N">
       <formula>LEFT(N28,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="64" priority="87" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",N28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:M15 O15:Q15 S15:U15">
-    <cfRule type="containsText" dxfId="83" priority="80" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="63" priority="80" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",K15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="81" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="62" priority="81" operator="beginsWith" text="N">
       <formula>LEFT(K15,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="81" priority="82" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="61" priority="82" operator="beginsWith" text="Y">
       <formula>LEFT(K15,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15 N15 R15">
-    <cfRule type="containsText" dxfId="80" priority="77" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="60" priority="77" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="79" priority="78" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="59" priority="78" operator="beginsWith" text="N">
       <formula>LEFT(I15,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:U27">
-    <cfRule type="containsText" dxfId="77" priority="74" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="57" priority="74" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",S27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="75" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="56" priority="75" operator="beginsWith" text="N">
       <formula>LEFT(S27,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="76" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="55" priority="76" operator="beginsWith" text="Y">
       <formula>LEFT(S27,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="74" priority="71" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="54" priority="71" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",R27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="72" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="53" priority="72" operator="beginsWith" text="N">
       <formula>LEFT(R27,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="52" priority="73" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:U29">
-    <cfRule type="containsText" dxfId="71" priority="68" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="51" priority="68" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",S28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="69" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="50" priority="69" operator="beginsWith" text="N">
       <formula>LEFT(S28,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="70" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="49" priority="70" operator="beginsWith" text="Y">
       <formula>LEFT(S28,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R29">
-    <cfRule type="containsText" dxfId="68" priority="65" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",R28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="67" priority="66" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="47" priority="66" operator="beginsWith" text="N">
       <formula>LEFT(R28,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",R28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:M17 O16:Q17 S16:U17">
-    <cfRule type="containsText" dxfId="65" priority="62" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="45" priority="62" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",K16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="63" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="44" priority="63" operator="beginsWith" text="N">
       <formula>LEFT(K16,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="63" priority="64" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="43" priority="64" operator="beginsWith" text="Y">
       <formula>LEFT(K16,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17 N16:N17 R16:R17">
-    <cfRule type="containsText" dxfId="62" priority="59" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="61" priority="60" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="41" priority="60" operator="beginsWith" text="N">
       <formula>LEFT(I16,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J18 J20:J29 J32:J33 J51:J1048576">
-    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",J1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="45" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="38" priority="45" operator="beginsWith" text="Y">
       <formula>LEFT(J1,LEN("Y"))="Y"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="46" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="37" priority="46" operator="beginsWith" text="N">
       <formula>LEFT(J1,LEN("N"))="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:M19 O19:Q19">
-    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",K19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="42" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="35" priority="42" operator="beginsWith" text="N">
       <formula>LEFT(K19,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="43" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="34" priority="43" operator="beginsWith" text="Y">
       <formula>LEFT(K19,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19 N19">
-    <cfRule type="containsText" dxfId="53" priority="38" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="39" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="32" priority="39" operator="beginsWith" text="N">
       <formula>LEFT(I19,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="40" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="31" priority="40" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",J19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="49" priority="36" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="29" priority="36" operator="beginsWith" text="Y">
       <formula>LEFT(J19,LEN("Y"))="Y"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="37" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="28" priority="37" operator="beginsWith" text="N">
       <formula>LEFT(J19,LEN("N"))="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U31 K30:M31 B30:B31 G30:H31 O30:Q31">
-    <cfRule type="containsText" dxfId="47" priority="32" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="33" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="26" priority="33" operator="beginsWith" text="N">
       <formula>LEFT(B30,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="45" priority="34" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="25" priority="34" operator="beginsWith" text="Y">
       <formula>LEFT(B30,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:R31 I30:I31 N30:N31">
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="25" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="23" priority="25" operator="beginsWith" text="N">
       <formula>LEFT(I30,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:F31">
-    <cfRule type="beginsWith" dxfId="41" priority="30" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="21" priority="30" operator="beginsWith" text="r">
       <formula>LEFT(D30,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="31" operator="beginsWith" text="a">
+    <cfRule type="beginsWith" dxfId="20" priority="31" operator="beginsWith" text="a">
       <formula>LEFT(D30,LEN("a"))="a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C31">
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="TBA">
+    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="TBA">
       <formula>NOT(ISERROR(SEARCH("TBA",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="1*">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="1*">
       <formula>NOT(ISERROR(SEARCH("1*",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J31">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",J30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="29" priority="16" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="15" priority="16" operator="beginsWith" text="Y">
       <formula>LEFT(J30,LEN("Y"))="Y"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="17" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="14" priority="17" operator="beginsWith" text="N">
       <formula>LEFT(J30,LEN("N"))="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:U50 O34:Q50 G34:H50 B34:B50 K34:M50">
-    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="13" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="12" priority="13" operator="beginsWith" text="N">
       <formula>LEFT(B34,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="14" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="11" priority="14" operator="beginsWith" text="Y">
       <formula>LEFT(B34,LEN("Y"))="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R50 N34:N50 I34:I50">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="5" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="9" priority="5" operator="beginsWith" text="N">
       <formula>LEFT(I34,LEN("N"))="N"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F50">
-    <cfRule type="beginsWith" dxfId="15" priority="10" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="7" priority="10" operator="beginsWith" text="r">
       <formula>LEFT(D34,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="11" operator="beginsWith" text="a">
+    <cfRule type="beginsWith" dxfId="6" priority="11" operator="beginsWith" text="a">
       <formula>LEFT(D34,LEN("a"))="a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C50">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="TBA">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="TBA">
       <formula>NOT(ISERROR(SEARCH("TBA",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="1*">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="1*">
       <formula>NOT(ISERROR(SEARCH("1*",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J50">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",J34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="Y">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Y">
       <formula>LEFT(J34,LEN("Y"))="Y"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="N">
       <formula>LEFT(J34,LEN("N"))="N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jira Scripting Plan_v2_3.xlsx
+++ b/Jira Scripting Plan_v2_3.xlsx
@@ -2428,7 +2428,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>28</v>
